--- a/SETTING CASES.xlsx
+++ b/SETTING CASES.xlsx
@@ -178,30 +178,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -225,9 +207,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,36 +221,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,488 +518,489 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B11" sqref="B11:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="2"/>
-    <col min="4" max="4" width="9.453125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.90625" style="2"/>
-    <col min="9" max="16384" width="10.90625" style="2"/>
+    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="1"/>
+    <col min="4" max="4" width="9.453125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.90625" style="1"/>
+    <col min="7" max="8" width="10.90625" style="10"/>
+    <col min="9" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>148.34299999999999</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>269.22500000000002</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>147.346</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="7">
         <v>721.19299999999998</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="7">
         <v>818.85799999999995</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>15.195399999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>10.5322</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>15.0832</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="7">
         <v>9.7092899999999993</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="7">
         <v>12.288600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>122.295</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>220.04</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>122.458</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="7">
         <v>628.43799999999999</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="7">
         <v>615.61400000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>0.95933599999999997</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>8.9986999999999998E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>0.13631399999999999</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="7">
         <v>3.7607599999999999</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="7">
         <v>3.2927900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>1.0004500000000001</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>0.16275500000000001</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>0.94477900000000004</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="7">
         <v>162.755</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="7">
         <v>162.755</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>13.816000000000001</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>13.758699999999999</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="7">
         <v>12</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>0.70157400000000003</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>0.68695899999999999</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>0.27315800000000001</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>0.1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>0.26745600000000003</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="7">
         <v>0.1</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="7">
         <v>0.11082500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>37</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>37</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>37</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="7">
         <v>75</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="7">
         <v>0.2</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="7">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>685.697</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>684.82</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>677.98400000000004</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="7">
         <v>1252.9000000000001</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="7">
         <v>8285.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>0.39672200000000002</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>0.26299099999999997</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>0.399897</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="7">
         <v>0.821496</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="7">
         <v>1.36934</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>0.82650199999999996</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>1.3634599999999999</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>0.83841100000000002</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="7">
         <v>1.02475</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="7">
         <v>0.61135799999999996</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="3"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="3"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="3"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="3"/>
+      <c r="A147" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:B24 A25:A27 C25:D27">
+  <conditionalFormatting sqref="A11:A27 C25:D27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1043,7 +1012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B24 C25:D27">
+  <conditionalFormatting sqref="A11:A24 C25:D27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1055,7 +1024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D24">
+  <conditionalFormatting sqref="A10:D10 A11:A24">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>

--- a/SETTING CASES.xlsx
+++ b/SETTING CASES.xlsx
@@ -146,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,24 +155,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,37 +197,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,486 +502,486 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="9.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.90625" style="1"/>
-    <col min="7" max="8" width="10.90625" style="10"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="21.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="4"/>
+    <col min="4" max="4" width="9.453125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.90625" style="4"/>
+    <col min="7" max="8" width="10.90625" style="3"/>
+    <col min="9" max="16384" width="10.90625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <v>148.34299999999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>269.22500000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>147.346</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>721.19299999999998</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>818.85799999999995</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <v>15.195399999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>10.5322</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>15.0832</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>9.7092899999999993</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>12.288600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>122.295</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>220.04</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>122.458</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>628.43799999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>615.61400000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="8">
         <v>0.95933599999999997</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>8.9986999999999998E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>0.13631399999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>3.7607599999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>3.2927900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <v>1.0004500000000001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>0.16275500000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>0.94477900000000004</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>162.755</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>162.755</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="8">
         <v>13.816000000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>12</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>13.758699999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>12</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>0.70157400000000003</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>0.68695899999999999</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>0.27315800000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>0.1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>0.26745600000000003</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>0.1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>0.11082500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="8">
         <v>37</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>37</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>37</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>75</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>0.2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>685.697</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>684.82</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>677.98400000000004</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>1252.9000000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>8285.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="8">
         <v>0.39672200000000002</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>0.26299099999999997</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>0.399897</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>0.821496</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>1.36934</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="8">
         <v>0.82650199999999996</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>1.3634599999999999</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>0.83841100000000002</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>1.02475</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>0.61135799999999996</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="2"/>
+      <c r="A139" s="9"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2"/>
+      <c r="A140" s="9"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2"/>
+      <c r="A146" s="9"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="2"/>
+      <c r="A147" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A11:A27 C25:D27">
